--- a/queue.xlsx
+++ b/queue.xlsx
@@ -1,57 +1,372 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marshall\Desktop\LumDraft\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A88EB1-B64C-4E57-A212-26F5F211A745}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>queue</t>
   </si>
   <si>
-    <t>https://soundcloud.com/purpleskyhq</t>
+    <t>https://soundcloud.com/letshaveagudnite</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/djfili</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/droneflesh</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mageofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/krimsonndj</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/officialrivero</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/headout</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/sweettalk_dj</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/sirvilhelm</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/hiphoprapconnection</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/gmafiarecords</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/future-music-support</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/brashbeats</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/garrett-day-56154238</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/angeldiary</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/jahseh-onfroy</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/6obbyy</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/guardinmusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/esxovar</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/guccisdead</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/shlumpd</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/dirtyshafi</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/texako</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/taylor</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/liquidritual</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mark_arkinson</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/latejune</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/puritylabel</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/chilltrapnetwork</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/magicallyedm</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/jim-yosef</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/blossomusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mitteofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/julianayamasaki</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/weareflamingos</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/gabby-toure</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/roberto175</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/rooftopsupport</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/deepspacesupport</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/wolveroofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/trystonalexander</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/haggard-assasin-walkin-killah</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/rnts-ballistic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mje-music</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/ilfroz</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mathieukoss</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/turn-up-the-music-loud</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/radio-anthems</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/smash-edm-hits</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/seangast</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/rich-the-kid</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/nipseyhussle</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/goldiiesworld</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/loveundergroundmusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/lovejuicemusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/est1987music</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/spandfriends</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/deadexitmusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/kraftykuts</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mackygee</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/rinsefm</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/beatport</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/lukasmooth</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/djlevela</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/fjadan1</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/prod_spaceone</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/fitchdj</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/officialjackel</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/musicofmadaila</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/wethemvmnt</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/djquasard</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/robert-raya</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/nl001</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/nl012</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/nl003</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mrtnsvspetroofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/dreamgaterecords</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/unitypromotions</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/iditi-official</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/dailyearfood</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mylkofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/crimekitchen</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/go_pnik</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/allbreakingrecords</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/dubstepforce</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/aevitunes</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/teminite</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/panemua</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/guillotineofficial</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/disciple</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/pixelterrorbass</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/birthdayypartyy</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/slimezvip</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/slimezmusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/thekillshot</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/djgammer</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/aiobahn</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/vibe-selektaz</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/marshmellomusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/iammindsight</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/laxcitymusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/jerryfolkmusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/pazmental_off</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/blankemusicau</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/blowinguptheworkshop</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/djrap</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/h0ffman</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/aperio</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/best-url-ever</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/logicomacorp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,28 +381,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -375,29 +678,575 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{49BA2EE7-0F97-4863-AB19-0C2D9A3308A1}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>